--- a/paper/Submissions/PlantCell/TPC revision/Tables/Table2_Wilcox_LSM.xlsx
+++ b/paper/Submissions/PlantCell/TPC revision/Tables/Table2_Wilcox_LSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8257508B-D121-4E50-8A75-596572D06052}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB77FFD-2F56-4135-B667-519F2DB8E350}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2_Wilcox_LSM" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,39 +729,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -790,6 +760,38 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1144,10 +1146,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1339,19 +1343,19 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>1134.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="22">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="23">
         <v>5.0390910637726599E-19</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="23">
         <v>3.3258001020899601E-17</v>
       </c>
     </row>
@@ -2691,14 +2695,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:O33"/>
     </sheetView>
   </sheetViews>
@@ -2706,1052 +2711,1052 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
         <v>2977.5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="5">
         <v>3987.5</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="5">
         <v>2927</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="5">
         <v>1864.5</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="5">
         <v>3008</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="5">
         <v>1710</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="5">
         <v>3460</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="5">
         <v>1597</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="5">
         <v>1134.5</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="5">
         <v>3927.5</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="5">
         <v>2943.5</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18">
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8">
         <v>5401</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="8">
         <v>4699</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="8">
         <v>3359</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="8">
         <v>4662</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="8">
         <v>3013.5</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="8">
         <v>4917.5</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="8">
         <v>2938</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="8">
         <v>2339.5</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="8">
         <v>5536</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="8">
         <v>4454</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18">
+      <c r="F6" s="6"/>
+      <c r="G6" s="8">
         <v>3709</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="8">
         <v>2552</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="8">
         <v>3690</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="8">
         <v>2296</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="8">
         <v>4003.5</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="8">
         <v>2204.5</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="8">
         <v>1689.5</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="8">
         <v>4536.5</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="8">
         <v>3571</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18">
+      <c r="G7" s="6"/>
+      <c r="H7" s="8">
         <v>3013</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="8">
         <v>4496</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="8">
         <v>2732</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="8">
         <v>4888.5</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="8">
         <v>2587.5</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="8">
         <v>1947</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="8">
         <v>5533.5</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="8">
         <v>4263.5</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18">
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8">
         <v>5837</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="8">
         <v>4028.5</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="8">
         <v>6002</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="8">
         <v>3963</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="8">
         <v>3276</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="8">
         <v>6706</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="8">
         <v>5583</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11">
         <v>1E-3</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18">
+      <c r="I9" s="6"/>
+      <c r="J9" s="8">
         <v>6143</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="8">
         <v>4191.5</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="8">
         <v>6286</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="8">
         <v>6854.5</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="8">
         <v>3575</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="8">
         <v>4701.5</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="18">
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8">
         <v>6310.5</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="8">
         <v>4523</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="8">
         <v>3876</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="8">
         <v>6917</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="8">
         <v>5939.5</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="18">
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8">
         <v>2619</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="8">
         <v>2081.5</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="8">
         <v>5099.5</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="8">
         <v>4048.5</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18">
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
         <v>3815</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="8">
         <v>7087.5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="8">
         <v>5984</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="9"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11">
         <v>2E-3</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="18">
+      <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8">
         <v>7567</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="8">
         <v>6601.5</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="10">
         <v>0.16</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="18">
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="8">
         <v>3439</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="10">
         <v>0.02</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="16"/>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="6"/>
     </row>
     <row r="21" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
         <v>2977.5</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="5">
         <v>3987.5</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="5">
         <v>2927</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="5">
         <v>1864.5</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="5">
         <v>3008</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="5">
         <v>1710</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="5">
         <v>3460</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="5">
         <v>1597</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="5">
         <v>1134.5</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="5">
         <v>3927.5</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="5">
         <v>2943.5</v>
       </c>
     </row>
     <row r="23" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18">
+      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8">
         <v>5401</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="8">
         <v>4699</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="8">
         <v>3359</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="8">
         <v>4662</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="8">
         <v>3013.5</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="8">
         <v>4917.5</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="8">
         <v>2938</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="8">
         <v>2339.5</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="8">
         <v>5536</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="8">
         <v>4454</v>
       </c>
     </row>
     <row r="24" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="D24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18">
+      <c r="F24" s="6"/>
+      <c r="G24" s="8">
         <v>3709</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="8">
         <v>2552</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="8">
         <v>3690</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="8">
         <v>2296</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="8">
         <v>4003.5</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="8">
         <v>2204.5</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="8">
         <v>1689.5</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="8">
         <v>4536.5</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="8">
         <v>3571</v>
       </c>
     </row>
     <row r="25" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="20">
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="18">
+      <c r="G25" s="6"/>
+      <c r="H25" s="8">
         <v>3013</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="8">
         <v>4496</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="8">
         <v>2732</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="8">
         <v>4888.5</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="8">
         <v>2587.5</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="8">
         <v>1947</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="8">
         <v>5533.5</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="8">
         <v>4263.5</v>
       </c>
     </row>
     <row r="26" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="18">
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="8">
         <v>5837</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="8">
         <v>4028.5</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="8">
         <v>6002</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="8">
         <v>3963</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="8">
         <v>3276</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="8">
         <v>6706</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="8">
         <v>5583</v>
       </c>
     </row>
     <row r="27" spans="3:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="20">
+      <c r="D27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="11">
         <v>1E-3</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="18">
+      <c r="I27" s="6"/>
+      <c r="J27" s="8">
         <v>6143</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="8">
         <v>4191.5</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="8">
         <v>6286</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="8">
         <v>6854.5</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="8">
         <v>3575</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="8">
         <v>4701.5</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="18">
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8">
         <v>6310.5</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="8">
         <v>4523</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="8">
         <v>3876</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="8">
         <v>6917</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="8">
         <v>5939.5</v>
       </c>
     </row>
     <row r="29" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="18">
+      <c r="E29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="8">
         <v>2619</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="8">
         <v>2081.5</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="8">
         <v>5099.5</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="8">
         <v>4048.5</v>
       </c>
     </row>
     <row r="30" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18">
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
         <v>3815</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="8">
         <v>7087.5</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="8">
         <v>5984</v>
       </c>
     </row>
     <row r="31" spans="3:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="21">
+      <c r="D31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="11">
         <v>2E-3</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="18">
+      <c r="I31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8">
         <v>7567</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="8">
         <v>6601.5</v>
       </c>
     </row>
     <row r="32" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="10">
         <v>0.16</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="19">
+      <c r="F32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="H32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="18">
+      <c r="J32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="8">
         <v>3439</v>
       </c>
     </row>
     <row r="33" spans="3:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="20">
+      <c r="D33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="10">
         <v>0.02</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="G33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="16"/>
+      <c r="I33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
